--- a/data-raw/Vocabulary.xlsx
+++ b/data-raw/Vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/eurobarometer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{249DC122-4B69-417D-93DE-81021C0D660E}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{21E25AD4-E50C-4DF6-A117-C5FCFCC90211}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="1" activeTab="6" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="factor_binary" sheetId="1" r:id="rId1"/>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD9CFAA-61F8-4C56-BD85-7E9D727436E0}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,10 +1497,10 @@
         <v>250</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,10 +1508,10 @@
         <v>251</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,11 +1661,11 @@
       <c r="A20" t="s">
         <v>265</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C20" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2888,7 +2888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D578B6A3-7F47-4CB1-924B-8B05ABD288B1}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/Vocabulary.xlsx
+++ b/data-raw/Vocabulary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/eurobarometer/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Antal\OneDrive - Visegrad Investments\_package\eurobarometer\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{21E25AD4-E50C-4DF6-A117-C5FCFCC90211}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{DD1C0233-6EC8-4456-86FD-48DA91F2004D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="factor_binary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="378">
   <si>
     <t>Inefficient</t>
   </si>
@@ -1075,6 +1075,96 @@
   </si>
   <si>
     <t xml:space="preserve"> level_in_society_self_placement</t>
+  </si>
+  <si>
+    <t>Much better</t>
+  </si>
+  <si>
+    <t>Somewhat better</t>
+  </si>
+  <si>
+    <t>Somewhat less good</t>
+  </si>
+  <si>
+    <t>Definitely less good</t>
+  </si>
+  <si>
+    <t>Identical (SPONT.)</t>
+  </si>
+  <si>
+    <t>Identical</t>
+  </si>
+  <si>
+    <t>good_5_1</t>
+  </si>
+  <si>
+    <t>good_5_2</t>
+  </si>
+  <si>
+    <t>Neither nor (3)</t>
+  </si>
+  <si>
+    <t>Bad thing (2)</t>
+  </si>
+  <si>
+    <t>Good thing</t>
+  </si>
+  <si>
+    <t>Applies fairly badly</t>
+  </si>
+  <si>
+    <t>Neither (SPONTANEOUS)</t>
+  </si>
+  <si>
+    <t>Applies fairly well</t>
+  </si>
+  <si>
+    <t>applies_3_1</t>
+  </si>
+  <si>
+    <t>In the wrong direction</t>
+  </si>
+  <si>
+    <t>Neither the one or the other (SPONTANEOUS)</t>
+  </si>
+  <si>
+    <t>In the right direction</t>
+  </si>
+  <si>
+    <t>direction_3_3</t>
+  </si>
+  <si>
+    <t>Neither the one or the other</t>
+  </si>
+  <si>
+    <t>agreement_4_2</t>
+  </si>
+  <si>
+    <t>Totally opposed</t>
+  </si>
+  <si>
+    <t>Totally in favour</t>
+  </si>
+  <si>
+    <t>Somewhat opposed</t>
+  </si>
+  <si>
+    <t>Somewhat in favour</t>
+  </si>
+  <si>
+    <t>Fairly distant from each other</t>
+  </si>
+  <si>
+    <t>Very distant from each other</t>
+  </si>
+  <si>
+    <t>Fairly close to each other</t>
+  </si>
+  <si>
+    <t>Very close to each other</t>
+  </si>
+  <si>
+    <t>distance_4_1</t>
   </si>
 </sst>
 </file>
@@ -1437,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD9CFAA-61F8-4C56-BD85-7E9D727436E0}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03697B1-1619-4CB8-8AA4-B6550CA28181}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,55 +1888,55 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>365</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>364</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>365</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>367</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
         <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
         <v>98</v>
@@ -1854,217 +1944,273 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>358</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>356</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>303</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>308</v>
+        <v>205</v>
+      </c>
+      <c r="D24" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>303</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>304</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>225</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>226</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D28" t="s">
         <v>224</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>362</v>
+      </c>
+      <c r="B29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C29" t="s">
+        <v>360</v>
+      </c>
+      <c r="D29" t="s">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:D25">
-    <sortCondition ref="A2:A25"/>
+  <sortState ref="A2:D28">
+    <sortCondition ref="A2:A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2247,10 +2393,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0015F8DA-9DA1-49E5-96DE-A4FF81162111}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,53 +2597,104 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>368</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>370</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>372</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>371</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>274</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>79</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>80</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>81</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16" t="s">
+        <v>376</v>
+      </c>
+      <c r="C16" t="s">
+        <v>375</v>
+      </c>
+      <c r="D16" t="s">
+        <v>373</v>
+      </c>
+      <c r="E16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2831,13 +3028,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367218D2-987D-47CF-8CD2-ECC2D3DB0D54}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2877,6 +3081,46 @@
       </c>
       <c r="F2" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F4" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Vocabulary.xlsx
+++ b/data-raw/Vocabulary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Antal\OneDrive - Visegrad Investments\_package\eurobarometer\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/eurobarometer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{DD1C0233-6EC8-4456-86FD-48DA91F2004D}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{171C92B8-6E9D-4A96-B7CF-BBB32BD453FD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="factor_binary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="410">
   <si>
     <t>Inefficient</t>
   </si>
@@ -87,9 +87,6 @@
     <t>correct answer</t>
   </si>
   <si>
-    <t>True (correct)</t>
-  </si>
-  <si>
     <t>tend not to trust</t>
   </si>
   <si>
@@ -444,9 +441,6 @@
     <t>Neither the one nor the other (SPONTANEOUS)</t>
   </si>
   <si>
-    <t>No change / As it is now (SPONTANEOUS)</t>
-  </si>
-  <si>
     <t>factor_4_0</t>
   </si>
   <si>
@@ -702,9 +696,6 @@
     <t>Performing worse</t>
   </si>
   <si>
-    <t>True. [CORRECT]</t>
-  </si>
-  <si>
     <t>False.</t>
   </si>
   <si>
@@ -720,15 +711,6 @@
     <t>Yes, on several occasions</t>
   </si>
   <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>occasionally</t>
-  </si>
-  <si>
-    <t>frequently</t>
-  </si>
-  <si>
     <t>Rural area or village</t>
   </si>
   <si>
@@ -813,9 +795,6 @@
     <t>correct2</t>
   </si>
   <si>
-    <t>true2</t>
-  </si>
-  <si>
     <t>trust1</t>
   </si>
   <si>
@@ -831,12 +810,6 @@
     <t>informed2</t>
   </si>
   <si>
-    <t>true3</t>
-  </si>
-  <si>
-    <t>true4</t>
-  </si>
-  <si>
     <t>efficient1</t>
   </si>
   <si>
@@ -984,9 +957,6 @@
     <t>frequency_3_2</t>
   </si>
   <si>
-    <t>subjective_urbanization_values</t>
-  </si>
-  <si>
     <t>frequency_3_3</t>
   </si>
   <si>
@@ -1089,18 +1059,12 @@
     <t>Definitely less good</t>
   </si>
   <si>
-    <t>Identical (SPONT.)</t>
-  </si>
-  <si>
     <t>Identical</t>
   </si>
   <si>
     <t>good_5_1</t>
   </si>
   <si>
-    <t>good_5_2</t>
-  </si>
-  <si>
     <t>Neither nor (3)</t>
   </si>
   <si>
@@ -1113,9 +1077,6 @@
     <t>Applies fairly badly</t>
   </si>
   <si>
-    <t>Neither (SPONTANEOUS)</t>
-  </si>
-  <si>
     <t>Applies fairly well</t>
   </si>
   <si>
@@ -1125,9 +1086,6 @@
     <t>In the wrong direction</t>
   </si>
   <si>
-    <t>Neither the one or the other (SPONTANEOUS)</t>
-  </si>
-  <si>
     <t>In the right direction</t>
   </si>
   <si>
@@ -1165,13 +1123,151 @@
   </si>
   <si>
     <t>distance_4_1</t>
+  </si>
+  <si>
+    <t>Frequently</t>
+  </si>
+  <si>
+    <t>Occasionally</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>positive_5_1</t>
+  </si>
+  <si>
+    <t>For</t>
+  </si>
+  <si>
+    <t>Against</t>
+  </si>
+  <si>
+    <t>for2</t>
+  </si>
+  <si>
+    <t>Not really urgently</t>
+  </si>
+  <si>
+    <t>Fairly urgently</t>
+  </si>
+  <si>
+    <t>Very urgently</t>
+  </si>
+  <si>
+    <t>Not at all urgently</t>
+  </si>
+  <si>
+    <t>urgently_4_1</t>
+  </si>
+  <si>
+    <t>Regularly</t>
+  </si>
+  <si>
+    <t>Hardly ever</t>
+  </si>
+  <si>
+    <t>important_3_2</t>
+  </si>
+  <si>
+    <t>improve_3_2</t>
+  </si>
+  <si>
+    <t>Yes, most of the time</t>
+  </si>
+  <si>
+    <t>Rarely</t>
+  </si>
+  <si>
+    <t>Yes, sometimes</t>
+  </si>
+  <si>
+    <t>frequency_4_1</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>Not important</t>
+  </si>
+  <si>
+    <t>important_2</t>
+  </si>
+  <si>
+    <t>agree2</t>
+  </si>
+  <si>
+    <t>important_4_2</t>
+  </si>
+  <si>
+    <t>Yes, only once or twice</t>
+  </si>
+  <si>
+    <t>Yes, frequently</t>
+  </si>
+  <si>
+    <t>regularly_4_2</t>
+  </si>
+  <si>
+    <t>certainly_4_2</t>
+  </si>
+  <si>
+    <t>Somewhat strongly</t>
+  </si>
+  <si>
+    <t>Extremely strongly</t>
+  </si>
+  <si>
+    <t>strong_4_2</t>
+  </si>
+  <si>
+    <t>agree5_1</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>Too high</t>
+  </si>
+  <si>
+    <t>sufficient_3_2</t>
+  </si>
+  <si>
+    <t>Describes very badly</t>
+  </si>
+  <si>
+    <t>Describes very well</t>
+  </si>
+  <si>
+    <t>Describes fairly badly</t>
+  </si>
+  <si>
+    <t>Describes fairly well</t>
+  </si>
+  <si>
+    <t>describes_4_1</t>
+  </si>
+  <si>
+    <t>subjective_urbanization_values_1</t>
+  </si>
+  <si>
+    <t>subjective_urbanization_values_2</t>
+  </si>
+  <si>
+    <t>small/middle town</t>
+  </si>
+  <si>
+    <t>large town</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,6 +1280,13 @@
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -1207,10 +1310,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1527,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD9CFAA-61F8-4C56-BD85-7E9D727436E0}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,18 +1646,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1562,7 +1668,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1573,7 +1679,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1584,7 +1690,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1595,7 +1701,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1606,18 +1712,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1628,156 +1734,156 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" t="s">
-        <v>189</v>
+        <v>184</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>187</v>
+        <v>369</v>
+      </c>
+      <c r="C20" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21" t="s">
-        <v>224</v>
+        <v>385</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>267</v>
+        <v>388</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>248</v>
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1788,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03697B1-1619-4CB8-8AA4-B6550CA28181}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1804,413 +1910,441 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>106</v>
-      </c>
-      <c r="D3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
         <v>133</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>134</v>
-      </c>
-      <c r="D4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
         <v>102</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>103</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D7" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>217</v>
       </c>
       <c r="D8" t="s">
-        <v>363</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>346</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>344</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B13" t="s">
-        <v>358</v>
+        <v>219</v>
       </c>
       <c r="C13" t="s">
-        <v>356</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
-        <v>220</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>222</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" t="s">
         <v>91</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B21" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>295</v>
-      </c>
-      <c r="B26" t="s">
-        <v>127</v>
+        <v>294</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" t="s">
-        <v>129</v>
+        <v>223</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>303</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>307</v>
+        <v>295</v>
+      </c>
+      <c r="B27" t="s">
+        <v>222</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>308</v>
+        <v>223</v>
+      </c>
+      <c r="D27" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>348</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>224</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>360</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>359</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>379</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>400</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>398</v>
+      </c>
+      <c r="D31" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D28">
-    <sortCondition ref="A2:A28"/>
+  <sortState ref="A2:D27">
+    <sortCondition ref="A2:A27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2218,185 +2352,200 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A2899-80DE-49F6-A1F5-04E9760B495F}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
         <v>143</v>
-      </c>
-      <c r="C4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" t="s">
-        <v>231</v>
+        <v>366</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D12" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0015F8DA-9DA1-49E5-96DE-A4FF81162111}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,291 +2559,342 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" t="s">
         <v>83</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
         <v>63</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>65</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>68</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>69</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="C12" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E12" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>72</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>73</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
         <v>75</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>76</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>80</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>81</v>
-      </c>
-      <c r="E15" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C16" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D16" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="E16" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E17" t="s">
         <v>194</v>
       </c>
-      <c r="C17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" t="s">
-        <v>196</v>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>384</v>
+      </c>
+      <c r="B18" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" t="s">
+        <v>382</v>
+      </c>
+      <c r="E18" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>405</v>
+      </c>
+      <c r="B20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" t="s">
+        <v>404</v>
+      </c>
+      <c r="D20" t="s">
+        <v>403</v>
+      </c>
+      <c r="E20" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -2704,334 +2904,427 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46AE99A-EA61-4837-A6C5-82AEF03E78CB}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="A24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
         <v>142</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>143</v>
-      </c>
-      <c r="D2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
         <v>146</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>147</v>
-      </c>
-      <c r="D3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
         <v>150</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>151</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
         <v>154</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>155</v>
-      </c>
-      <c r="D5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
         <v>158</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>159</v>
-      </c>
-      <c r="D6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
         <v>162</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>163</v>
-      </c>
-      <c r="D7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" t="s">
         <v>166</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>167</v>
-      </c>
-      <c r="D8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
         <v>171</v>
-      </c>
-      <c r="C10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" t="s">
         <v>174</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>175</v>
-      </c>
-      <c r="D11" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
         <v>178</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>179</v>
-      </c>
-      <c r="D12" t="s">
-        <v>180</v>
-      </c>
-      <c r="E12" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" t="s">
         <v>182</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>183</v>
-      </c>
-      <c r="D13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" t="s">
         <v>190</v>
       </c>
-      <c r="D14" t="s">
-        <v>192</v>
-      </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" t="s">
         <v>211</v>
       </c>
-      <c r="C18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18" t="s">
-        <v>212</v>
-      </c>
-      <c r="E18" t="s">
-        <v>213</v>
-      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" t="s">
+        <v>372</v>
+      </c>
+      <c r="D19" t="s">
+        <v>373</v>
+      </c>
+      <c r="E19" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C20" t="s">
+        <v>378</v>
+      </c>
+      <c r="D20" t="s">
+        <v>365</v>
+      </c>
+      <c r="E20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" t="s">
+        <v>385</v>
+      </c>
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>392</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>396</v>
+      </c>
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>394</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367218D2-987D-47CF-8CD2-ECC2D3DB0D54}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,82 +3338,102 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>334</v>
       </c>
-      <c r="C1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D1" t="s">
-        <v>336</v>
-      </c>
-      <c r="E1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>344</v>
-      </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C3" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F3" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="E4" t="s">
-        <v>349</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>348</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3140,22 +3453,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Vocabulary.xlsx
+++ b/data-raw/Vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/eurobarometer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="532" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{171C92B8-6E9D-4A96-B7CF-BBB32BD453FD}"/>
+  <xr:revisionPtr revIDLastSave="541" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{6A50BBBE-F810-4CD6-9EC4-8C9119E7E325}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="factor_binary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="416">
   <si>
     <t>Inefficient</t>
   </si>
@@ -1261,6 +1261,24 @@
   </si>
   <si>
     <t>large town</t>
+  </si>
+  <si>
+    <t>false (correct)</t>
+  </si>
+  <si>
+    <t>true.</t>
+  </si>
+  <si>
+    <t>true2</t>
+  </si>
+  <si>
+    <t>false.</t>
+  </si>
+  <si>
+    <t>true (correct)</t>
+  </si>
+  <si>
+    <t>true3</t>
   </si>
 </sst>
 </file>
@@ -1631,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD9CFAA-61F8-4C56-BD85-7E9D727436E0}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,6 +1902,28 @@
       </c>
       <c r="C22" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>412</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" t="s">
+        <v>413</v>
+      </c>
+      <c r="C24" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -2354,7 +2394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A2899-80DE-49F6-A1F5-04E9760B495F}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/data-raw/Vocabulary.xlsx
+++ b/data-raw/Vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/eurobarometer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="541" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{6A50BBBE-F810-4CD6-9EC4-8C9119E7E325}"/>
+  <xr:revisionPtr revIDLastSave="555" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{AA5F1D74-5C81-4CDE-8B2F-E918C6390D2C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="factor_binary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="419">
   <si>
     <t>Inefficient</t>
   </si>
@@ -1279,6 +1279,15 @@
   </si>
   <si>
     <t>true3</t>
+  </si>
+  <si>
+    <t>Moderately well informed</t>
+  </si>
+  <si>
+    <t>Poorly informed</t>
+  </si>
+  <si>
+    <t>informed_3_1</t>
   </si>
 </sst>
 </file>
@@ -1651,7 +1660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD9CFAA-61F8-4C56-BD85-7E9D727436E0}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -2392,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A2899-80DE-49F6-A1F5-04E9760B495F}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,6 +2581,20 @@
       </c>
       <c r="D12" t="s">
         <v>409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C13" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Vocabulary.xlsx
+++ b/data-raw/Vocabulary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/eurobarometer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="555" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{AA5F1D74-5C81-4CDE-8B2F-E918C6390D2C}"/>
+  <xr:revisionPtr revIDLastSave="601" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{456312E5-6871-42EC-AE25-C40D9B4A97D7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="factor_binary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="407">
   <si>
     <t>Inefficient</t>
   </si>
@@ -114,15 +114,6 @@
     <t>disagree</t>
   </si>
   <si>
-    <t>factor_3_0</t>
-  </si>
-  <si>
-    <t>factor_3_1</t>
-  </si>
-  <si>
-    <t>factor_3_2</t>
-  </si>
-  <si>
     <t>No, probably not</t>
   </si>
   <si>
@@ -279,27 +270,6 @@
     <t>Very negative view</t>
   </si>
   <si>
-    <t>yes_2_value</t>
-  </si>
-  <si>
-    <t>yes_1_value</t>
-  </si>
-  <si>
-    <t>no_1_value</t>
-  </si>
-  <si>
-    <t>no_2_value</t>
-  </si>
-  <si>
-    <t>factor_positive</t>
-  </si>
-  <si>
-    <t>factor_null</t>
-  </si>
-  <si>
-    <t>factor_negative</t>
-  </si>
-  <si>
     <t>Too little</t>
   </si>
   <si>
@@ -441,18 +411,6 @@
     <t>Neither the one nor the other (SPONTANEOUS)</t>
   </si>
   <si>
-    <t>factor_4_0</t>
-  </si>
-  <si>
-    <t>factor_4_1</t>
-  </si>
-  <si>
-    <t>factor_4_2</t>
-  </si>
-  <si>
-    <t>factor_4_3</t>
-  </si>
-  <si>
     <t>Not at all</t>
   </si>
   <si>
@@ -813,12 +771,6 @@
     <t>efficient1</t>
   </si>
   <si>
-    <t>positive_values</t>
-  </si>
-  <si>
-    <t>negative_values</t>
-  </si>
-  <si>
     <t>good_bad_4_1</t>
   </si>
   <si>
@@ -855,9 +807,6 @@
     <t>certainly_4_1</t>
   </si>
   <si>
-    <t>little_much_3</t>
-  </si>
-  <si>
     <t>amount_3_1</t>
   </si>
   <si>
@@ -939,9 +888,6 @@
     <t>tension_3_1</t>
   </si>
   <si>
-    <t>Strong_3_1</t>
-  </si>
-  <si>
     <t>society_3_1</t>
   </si>
   <si>
@@ -1005,21 +951,6 @@
     <t>good_4_1</t>
   </si>
   <si>
-    <t>factor_5_0</t>
-  </si>
-  <si>
-    <t>factor_5_1</t>
-  </si>
-  <si>
-    <t>factor_5_2</t>
-  </si>
-  <si>
-    <t>factor_5_3</t>
-  </si>
-  <si>
-    <t>factor_5_4</t>
-  </si>
-  <si>
     <t>More or less the same</t>
   </si>
   <si>
@@ -1044,9 +975,6 @@
     <t>n_of_persons_present_during_interview</t>
   </si>
   <si>
-    <t xml:space="preserve"> level_in_society_self_placement</t>
-  </si>
-  <si>
     <t>Much better</t>
   </si>
   <si>
@@ -1194,9 +1122,6 @@
     <t>Not important</t>
   </si>
   <si>
-    <t>important_2</t>
-  </si>
-  <si>
     <t>agree2</t>
   </si>
   <si>
@@ -1224,9 +1149,6 @@
     <t>strong_4_2</t>
   </si>
   <si>
-    <t>agree5_1</t>
-  </si>
-  <si>
     <t>Adequate</t>
   </si>
   <si>
@@ -1288,6 +1210,48 @@
   </si>
   <si>
     <t>informed_3_1</t>
+  </si>
+  <si>
+    <t>level_in_society_self_placement</t>
+  </si>
+  <si>
+    <t>pos_1</t>
+  </si>
+  <si>
+    <t>neg_1</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>pos_2</t>
+  </si>
+  <si>
+    <t>neg_2</t>
+  </si>
+  <si>
+    <t>pos_3</t>
+  </si>
+  <si>
+    <t>good_bad_3_4</t>
+  </si>
+  <si>
+    <t>positive_4_2</t>
+  </si>
+  <si>
+    <t>risk_4_1</t>
+  </si>
+  <si>
+    <t>agree_5_1</t>
+  </si>
+  <si>
+    <t>important1</t>
+  </si>
+  <si>
+    <t>little_much_3_1</t>
+  </si>
+  <si>
+    <t>well_4_1</t>
   </si>
 </sst>
 </file>
@@ -1660,8 +1624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD9CFAA-61F8-4C56-BD85-7E9D727436E0}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,269 +1638,272 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>260</v>
+        <v>394</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>345</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>404</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
+        <v>361</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
+        <v>170</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>258</v>
-      </c>
-      <c r="B19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>185</v>
+        <v>232</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>371</v>
-      </c>
-      <c r="B20" t="s">
-        <v>369</v>
+        <v>386</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="C20" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>389</v>
+      </c>
+      <c r="B21" t="s">
         <v>387</v>
       </c>
-      <c r="B21" t="s">
-        <v>385</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>386</v>
+      <c r="C21" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>388</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>412</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>410</v>
+        <v>230</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>411</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>415</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s">
-        <v>413</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>414</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C24">
+    <sortCondition ref="A2:A24"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1945,13 +1913,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03697B1-1619-4CB8-8AA4-B6550CA28181}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
@@ -1959,114 +1928,114 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>394</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>396</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>353</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>350</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>327</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>329</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2074,111 +2043,111 @@
         <v>276</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>344</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>345</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>296</v>
+        <v>400</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>322</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>320</v>
       </c>
       <c r="D13" t="s">
-        <v>220</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>355</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2186,214 +2155,214 @@
         <v>274</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>356</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>405</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="B20" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" t="s">
         <v>120</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>121</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s">
         <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>294</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>298</v>
+        <v>273</v>
+      </c>
+      <c r="B26" t="s">
+        <v>191</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>299</v>
+        <v>189</v>
+      </c>
+      <c r="D26" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>349</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s">
-        <v>348</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>347</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>372</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>379</v>
-      </c>
-      <c r="B30" t="s">
-        <v>132</v>
+        <v>277</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" t="s">
-        <v>134</v>
+        <v>209</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>400</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="C31" t="s">
-        <v>398</v>
+        <v>209</v>
       </c>
       <c r="D31" t="s">
-        <v>399</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D27">
-    <sortCondition ref="A2:A27"/>
+  <sortState ref="A2:D31">
+    <sortCondition ref="A2:A31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2403,8 +2372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A2899-80DE-49F6-A1F5-04E9760B495F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2417,187 +2387,190 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>396</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>394</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
-        <v>214</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" t="s">
-        <v>143</v>
+        <v>342</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>364</v>
+        <v>391</v>
+      </c>
+      <c r="C6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>380</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>381</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="D12" t="s">
-        <v>409</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>284</v>
       </c>
       <c r="B13" t="s">
-        <v>417</v>
+        <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>416</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D13">
+    <sortCondition ref="A2:A13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2608,7 +2581,8 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,345 +2596,348 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>397</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>394</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>334</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>376</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>378</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>377</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>337</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>335</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
         <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D12" t="s">
         <v>358</v>
       </c>
-      <c r="D12" t="s">
-        <v>357</v>
-      </c>
       <c r="E12" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>362</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>360</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>384</v>
+        <v>254</v>
       </c>
       <c r="B18" t="s">
-        <v>381</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>383</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>382</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>366</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>393</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>405</v>
+        <v>255</v>
       </c>
       <c r="B20" t="s">
-        <v>402</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>404</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>403</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>401</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E20">
+    <sortCondition ref="A2:A20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2969,8 +2946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46AE99A-EA61-4837-A6C5-82AEF03E78CB}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="A24:E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,399 +2962,402 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>396</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>394</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>397</v>
       </c>
       <c r="E1" t="s">
-        <v>139</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>361</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>256</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>354</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>341</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>365</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>189</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B15" t="s">
-        <v>194</v>
+        <v>402</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>321</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>303</v>
+      </c>
+      <c r="B16" t="s">
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
-        <v>375</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>372</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>373</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>374</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>272</v>
+        <v>371</v>
       </c>
       <c r="B20" t="s">
-        <v>366</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D20" t="s">
-        <v>365</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>348</v>
       </c>
       <c r="D21" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>390</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>391</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>301</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>394</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="E23" t="s">
-        <v>395</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
     </row>
   </sheetData>
+  <sortState ref="A2:E23">
+    <sortCondition ref="A2:A23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3387,11 +3368,13 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="30.140625" customWidth="1"/>
@@ -3401,105 +3384,108 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>398</v>
       </c>
       <c r="C1" t="s">
-        <v>325</v>
+        <v>395</v>
       </c>
       <c r="D1" t="s">
-        <v>326</v>
+        <v>396</v>
       </c>
       <c r="E1" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="F1" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>333</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>330</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="F3" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>309</v>
       </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>306</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>310</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>343</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F5">
+    <sortCondition ref="A2:A5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3509,29 +3495,29 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/Vocabulary.xlsx
+++ b/data-raw/Vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/eurobarometer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="601" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{456312E5-6871-42EC-AE25-C40D9B4A97D7}"/>
+  <xr:revisionPtr revIDLastSave="602" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{ED14556C-170C-43E5-9CEB-A11CF9094B47}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="factor_binary" sheetId="1" r:id="rId1"/>
@@ -2370,11 +2370,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A2899-80DE-49F6-A1F5-04E9760B495F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,22 +2554,25 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>284</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>200</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>198</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>199</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D13">
-    <sortCondition ref="A2:A13"/>
+  <sortState ref="A2:D14">
+    <sortCondition ref="A2:A14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2946,7 +2949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46AE99A-EA61-4837-A6C5-82AEF03E78CB}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>

--- a/data-raw/Vocabulary.xlsx
+++ b/data-raw/Vocabulary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/eurobarometer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="602" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{ED14556C-170C-43E5-9CEB-A11CF9094B47}"/>
+  <xr:revisionPtr revIDLastSave="603" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{C0405801-9E78-4217-8EBF-C6F248077777}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
   </bookViews>
@@ -2370,11 +2370,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A2899-80DE-49F6-A1F5-04E9760B495F}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,25 +2554,22 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A13" t="s">
         <v>284</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B13" t="s">
         <v>200</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C13" t="s">
         <v>198</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D13" t="s">
         <v>199</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D14">
-    <sortCondition ref="A2:A14"/>
+  <sortState ref="A2:D13">
+    <sortCondition ref="A2:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/data-raw/Vocabulary.xlsx
+++ b/data-raw/Vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/eurobarometer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="603" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{C0405801-9E78-4217-8EBF-C6F248077777}"/>
+  <xr:revisionPtr revIDLastSave="713" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{5C6D0BBD-0A6A-4F43-9E54-659389415158}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="factor_binary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="443">
   <si>
     <t>Inefficient</t>
   </si>
@@ -1252,6 +1252,114 @@
   </si>
   <si>
     <t>well_4_1</t>
+  </si>
+  <si>
+    <t>Often</t>
+  </si>
+  <si>
+    <t>better_worse_4_1</t>
+  </si>
+  <si>
+    <t>good_bad_3_5</t>
+  </si>
+  <si>
+    <t>A bad thing (2)</t>
+  </si>
+  <si>
+    <t>direction_3_4</t>
+  </si>
+  <si>
+    <t>Neither nor (SPONT.)</t>
+  </si>
+  <si>
+    <t>improve_3_3</t>
+  </si>
+  <si>
+    <t>Stayed the same</t>
+  </si>
+  <si>
+    <t>easy_3_2</t>
+  </si>
+  <si>
+    <t>Very transparent</t>
+  </si>
+  <si>
+    <t>Not transparent at all</t>
+  </si>
+  <si>
+    <t>Not very transparent</t>
+  </si>
+  <si>
+    <t>Transparent</t>
+  </si>
+  <si>
+    <t>transparent_4_1</t>
+  </si>
+  <si>
+    <t>for1</t>
+  </si>
+  <si>
+    <t>In favour</t>
+  </si>
+  <si>
+    <t>agreement_4_3</t>
+  </si>
+  <si>
+    <t>Strongly disagree</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>level_4_1</t>
+  </si>
+  <si>
+    <t>Somewhat</t>
+  </si>
+  <si>
+    <t>To a great extent</t>
+  </si>
+  <si>
+    <t>Not really</t>
+  </si>
+  <si>
+    <t>matters_4_1</t>
+  </si>
+  <si>
+    <t>Matters somewhat</t>
+  </si>
+  <si>
+    <t>Matters a lot</t>
+  </si>
+  <si>
+    <t>Does not matter at all</t>
+  </si>
+  <si>
+    <t>Does not matter much</t>
+  </si>
+  <si>
+    <t>interest_4_1</t>
+  </si>
+  <si>
+    <t>Somewhat interested</t>
+  </si>
+  <si>
+    <t>Somewhat disinterested</t>
+  </si>
+  <si>
+    <t>Very disinterested</t>
+  </si>
+  <si>
+    <t>Not very well informed</t>
+  </si>
+  <si>
+    <t>informed_4_2</t>
+  </si>
+  <si>
+    <t>Not enough</t>
+  </si>
+  <si>
+    <t>amount_3_2</t>
   </si>
 </sst>
 </file>
@@ -1622,11 +1730,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD9CFAA-61F8-4C56-BD85-7E9D727436E0}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,7 +1744,7 @@
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>225</v>
       </c>
@@ -1647,7 +1755,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -1658,7 +1766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>363</v>
       </c>
@@ -1669,7 +1777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>234</v>
       </c>
@@ -1680,7 +1788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>235</v>
       </c>
@@ -1691,7 +1799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -1702,7 +1810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -1713,7 +1821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -1724,7 +1832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -1735,7 +1843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>237</v>
       </c>
@@ -1746,7 +1854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>245</v>
       </c>
@@ -1757,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>347</v>
       </c>
@@ -1768,141 +1876,153 @@
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>226</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>227</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>404</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>361</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
+        <v>170</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>386</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="C20" t="s">
-        <v>385</v>
+        <v>232</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>389</v>
-      </c>
-      <c r="B21" t="s">
-        <v>387</v>
+        <v>386</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="C21" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>389</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>242</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C24">
-    <sortCondition ref="A2:A24"/>
+  <sortState ref="A2:C25">
+    <sortCondition ref="A2:A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1911,11 +2031,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03697B1-1619-4CB8-8AA4-B6550CA28181}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,7 +2046,7 @@
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>225</v>
       </c>
@@ -1940,7 +2060,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>258</v>
       </c>
@@ -1954,415 +2074,488 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>325</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>324</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>264</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>94</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>271</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>122</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C7" t="s">
         <v>123</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>262</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>263</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>91</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>92</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>328</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>327</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>329</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D10" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>276</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>201</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>203</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>259</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
         <v>85</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>86</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>260</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" t="s">
         <v>125</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>261</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>192</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C16" t="s">
         <v>193</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D16" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>400</v>
-      </c>
-      <c r="B13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>272</v>
-      </c>
-      <c r="B15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>400</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>322</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>320</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>268</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>266</v>
+        <v>355</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>279</v>
+        <v>356</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>265</v>
+        <v>405</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>374</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
-        <v>372</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>373</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>277</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>282</v>
+        <v>102</v>
+      </c>
+      <c r="D30" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>275</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>374</v>
+      </c>
+      <c r="B34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" t="s">
+        <v>372</v>
+      </c>
+      <c r="D34" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>277</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>278</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
         <v>208</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C36" t="s">
         <v>209</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D36" t="s">
         <v>207</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D31">
-    <sortCondition ref="A2:A31"/>
+  <sortState ref="A2:D36">
+    <sortCondition ref="A2:A36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2372,7 +2565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A2899-80DE-49F6-A1F5-04E9760B495F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
@@ -2578,11 +2771,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0015F8DA-9DA1-49E5-96DE-A4FF81162111}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2630,44 +2823,44 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>425</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>331</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>332</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -2681,274 +2874,363 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
-        <v>376</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>378</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>375</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="B8" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="C8" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="D8" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="E8" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>338</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>337</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>335</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>359</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>358</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>342</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>401</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>255</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>37</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>420</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C23" t="s">
+        <v>419</v>
+      </c>
+      <c r="D23" t="s">
+        <v>418</v>
+      </c>
+      <c r="E23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24" t="s">
+        <v>434</v>
+      </c>
+      <c r="D24" t="s">
+        <v>431</v>
+      </c>
+      <c r="E24" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>435</v>
+      </c>
+      <c r="B25" t="s">
+        <v>438</v>
+      </c>
+      <c r="C25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D25" t="s">
+        <v>436</v>
+      </c>
+      <c r="E25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+    </row>
   </sheetData>
-  <sortState ref="A2:E20">
-    <sortCondition ref="A2:A20"/>
+  <sortState ref="A2:E21">
+    <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46AE99A-EA61-4837-A6C5-82AEF03E78CB}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3081,282 +3363,350 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>439</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>354</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>353</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>342</v>
       </c>
       <c r="C14" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>341</v>
       </c>
       <c r="E14" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>402</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>367</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>365</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>303</v>
-      </c>
-      <c r="B16" t="s">
-        <v>188</v>
+        <v>402</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>371</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>369</v>
+        <v>127</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>370</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s">
-        <v>351</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="D21" t="s">
-        <v>349</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>406</v>
+        <v>352</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>351</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>348</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>349</v>
       </c>
       <c r="E22" t="s">
-        <v>161</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>301</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>162</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>163</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>164</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>165</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" t="s">
+        <v>342</v>
+      </c>
+      <c r="C25" t="s">
+        <v>358</v>
+      </c>
+      <c r="D25" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" t="s">
+        <v>407</v>
+      </c>
+    </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
+      <c r="A26" t="s">
+        <v>426</v>
+      </c>
+      <c r="B26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D26" t="s">
+        <v>427</v>
+      </c>
+      <c r="E26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C27" t="s">
+        <v>434</v>
+      </c>
+      <c r="D27" t="s">
+        <v>431</v>
+      </c>
+      <c r="E27" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E23">
-    <sortCondition ref="A2:A23"/>
+  <sortState ref="A2:E24">
+    <sortCondition ref="A2:A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/data-raw/Vocabulary.xlsx
+++ b/data-raw/Vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/eurobarometer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="713" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{5C6D0BBD-0A6A-4F43-9E54-659389415158}"/>
+  <xr:revisionPtr revIDLastSave="724" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{FE0E82C1-72CF-4B56-B6E9-98F05A7DDCDC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="factor_binary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="444">
   <si>
     <t>Inefficient</t>
   </si>
@@ -1360,6 +1360,9 @@
   </si>
   <si>
     <t>amount_3_2</t>
+  </si>
+  <si>
+    <t>true4</t>
   </si>
 </sst>
 </file>
@@ -1730,11 +1733,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD9CFAA-61F8-4C56-BD85-7E9D727436E0}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,42 +1984,53 @@
         <v>389</v>
       </c>
       <c r="B22" t="s">
+        <v>388</v>
+      </c>
+      <c r="C22" t="s">
         <v>387</v>
-      </c>
-      <c r="C22" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>240</v>
+        <v>443</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
+        <v>384</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>242</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2031,11 +2045,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A03697B1-1619-4CB8-8AA4-B6550CA28181}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,6 +2566,10 @@
       <c r="D36" t="s">
         <v>207</v>
       </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:D36">

--- a/data-raw/Vocabulary.xlsx
+++ b/data-raw/Vocabulary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/eurobarometer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="724" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{FE0E82C1-72CF-4B56-B6E9-98F05A7DDCDC}"/>
+  <xr:revisionPtr revIDLastSave="728" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{62813AFB-02C6-4659-AFE4-8B612A45F4E2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="factor_binary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="447">
   <si>
     <t>Inefficient</t>
   </si>
@@ -1363,6 +1363,15 @@
   </si>
   <si>
     <t>true4</t>
+  </si>
+  <si>
+    <t>agreement_4_4</t>
+  </si>
+  <si>
+    <t>Somewhat agree</t>
+  </si>
+  <si>
+    <t>Somewhat disagree</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD9CFAA-61F8-4C56-BD85-7E9D727436E0}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
@@ -2789,11 +2798,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0015F8DA-9DA1-49E5-96DE-A4FF81162111}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2858,44 +2867,44 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>445</v>
       </c>
       <c r="D4" t="s">
-        <v>333</v>
+        <v>446</v>
       </c>
       <c r="E4" t="s">
-        <v>331</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>332</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>334</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -2909,333 +2918,350 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>368</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>378</v>
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>377</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>375</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="D9" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="E9" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>338</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>337</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>335</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="B13" t="s">
-        <v>357</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>359</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>358</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>359</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>256</v>
+        <v>401</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>255</v>
       </c>
       <c r="B22" t="s">
-        <v>314</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
-        <v>317</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>420</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>416</v>
+        <v>408</v>
+      </c>
+      <c r="B23" t="s">
+        <v>314</v>
       </c>
       <c r="C23" t="s">
-        <v>419</v>
+        <v>315</v>
       </c>
       <c r="D23" t="s">
-        <v>418</v>
+        <v>316</v>
       </c>
       <c r="E23" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>430</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>433</v>
+        <v>420</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>416</v>
       </c>
       <c r="C24" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="D24" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="E24" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C25" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" t="s">
+        <v>431</v>
+      </c>
+      <c r="E25" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>435</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>438</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>437</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>436</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E21">
-    <sortCondition ref="A2:A21"/>
+  <sortState ref="A2:E22">
+    <sortCondition ref="A2:A22"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/data-raw/Vocabulary.xlsx
+++ b/data-raw/Vocabulary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/eurobarometer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="728" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{62813AFB-02C6-4659-AFE4-8B612A45F4E2}"/>
+  <xr:revisionPtr revIDLastSave="758" documentId="8_{1F982E31-BC7A-450F-8AC7-346FCF11D38C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{09A8D5F7-B5ED-47FB-9130-3C115473296E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="7" xr2:uid="{F0E7EEBB-22F3-4EFF-9ECF-DA45CE23BB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="factor_binary" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="factor_4" sheetId="5" r:id="rId5"/>
     <sheet name="factor_5" sheetId="7" r:id="rId6"/>
     <sheet name="keep_numeric_names" sheetId="6" r:id="rId7"/>
+    <sheet name="factor_frequency" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="452">
   <si>
     <t>Inefficient</t>
   </si>
@@ -1372,6 +1373,21 @@
   </si>
   <si>
     <t>Somewhat disagree</t>
+  </si>
+  <si>
+    <t>every 2-3 months</t>
+  </si>
+  <si>
+    <t>once a month</t>
+  </si>
+  <si>
+    <t>several times a month</t>
+  </si>
+  <si>
+    <t>less often</t>
+  </si>
+  <si>
+    <t>monhly_frequency_4</t>
   </si>
 </sst>
 </file>
@@ -2800,7 +2816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0015F8DA-9DA1-49E5-96DE-A4FF81162111}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
@@ -3763,7 +3779,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3917,4 +3933,64 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7060E08-21AE-47F6-AAAA-A3F1A49A4AC4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1">
+        <v>36</v>
+      </c>
+      <c r="C1">
+        <v>12</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>